--- a/Stocks/MCDOWELL-N.xlsx
+++ b/Stocks/MCDOWELL-N.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1916.1333333333332</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>2598.7581846408984</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>2565.9326668265599</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>46.991689075303519</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>5.8000000000001819</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>72.600000000000364</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>7.9889807162536547E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>2562.32437577768</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>43.957701135466323</v>
       </c>
       <c r="Y67">
         <v>69.627125250101201</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>2583.6999999999998</v>
+      </c>
+      <c r="D83">
+        <v>2596.9</v>
+      </c>
+      <c r="E83">
+        <v>2552</v>
+      </c>
+      <c r="F83">
+        <v>2568</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>2572.2999999999997</v>
+      </c>
+      <c r="H83">
+        <v>2554.6056397733255</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>2583.8719067867351</v>
+      </c>
+      <c r="K83">
+        <v>2512.6943086128017</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>57.967808679274434</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>44.900000000000091</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.35634743875278324</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>2542.6465185122247</v>
+      </c>
+      <c r="W83">
+        <v>2545.3497324454211</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-2.7032139331963663</v>
+      </c>
+      <c r="Y83">
+        <v>1.0041781098379716</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>2564</v>
+      </c>
+      <c r="D84">
+        <v>2579</v>
+      </c>
+      <c r="E84">
+        <v>2525</v>
+      </c>
+      <c r="F84">
+        <v>2554</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>2552.6666666666665</v>
+      </c>
+      <c r="H84">
+        <v>2553.6361532199962</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>2582.7892608341272</v>
+      </c>
+      <c r="K84">
+        <v>2515.4289066988458</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>53.635563764857885</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>29</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>54</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.53703703703703709</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>2544.3932079718825</v>
+      </c>
+      <c r="W84">
+        <v>2545.9904930050193</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-1.5972850331368136</v>
+      </c>
+      <c r="Y84">
+        <v>0.48388548124301456</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>2575.1</v>
+      </c>
+      <c r="D85">
+        <v>2584</v>
+      </c>
+      <c r="E85">
+        <v>2546.1</v>
+      </c>
+      <c r="F85">
+        <v>2546.3000000000002</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>2558.8000000000002</v>
+      </c>
+      <c r="H85">
+        <v>2556.2180766099982</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>2583.0583139820988</v>
+      </c>
+      <c r="K85">
+        <v>2522.2447052102134</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>51.014414653933351</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>0.20000000000027285</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>37.900000000000091</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>5.2770448548884533E-3</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>2544.6865605915928</v>
+      </c>
+      <c r="W85">
+        <v>2546.013419449092</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-1.3268588574992464</v>
+      </c>
+      <c r="Y85">
+        <v>0.12173661349456233</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>2558.6999999999998</v>
+      </c>
+      <c r="D86">
+        <v>2575</v>
+      </c>
+      <c r="E86">
+        <v>2534.15</v>
+      </c>
+      <c r="F86">
+        <v>2539.9</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>2549.6833333333329</v>
+      </c>
+      <c r="H86">
+        <v>2552.9507049716658</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>2581.2675775416324</v>
+      </c>
+      <c r="K86">
+        <v>2524.8903262746103</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>48.549386489300169</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>5.75</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>40.849999999999909</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.14075887392900888</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>2543.9501666544247</v>
+      </c>
+      <c r="W86">
+        <v>2545.5605735639742</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-1.6104069095495106</v>
+      </c>
+      <c r="Y86">
+        <v>-0.22469209111425226</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>2551</v>
+      </c>
+      <c r="D87">
+        <v>2565.4499999999998</v>
+      </c>
+      <c r="E87">
+        <v>2541.1999999999998</v>
+      </c>
+      <c r="F87">
+        <v>2543.8000000000002</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>2550.15</v>
+      </c>
+      <c r="H87">
+        <v>2551.5503524858332</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>2577.7525603101585</v>
+      </c>
+      <c r="K87">
+        <v>2528.5146982135857</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>50.375873139663916</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>2.6000000000003638</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>24.25</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.10721649484537582</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>2543.9270640922055</v>
+      </c>
+      <c r="W87">
+        <v>2545.4301607073835</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-1.5030966151780376</v>
+      </c>
+      <c r="Y87">
+        <v>-0.48037299592700933</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>2546</v>
+      </c>
+      <c r="D88">
+        <v>2655</v>
+      </c>
+      <c r="E88">
+        <v>2545.9499999999998</v>
+      </c>
+      <c r="F88">
+        <v>2570</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>2590.3166666666666</v>
+      </c>
+      <c r="H88">
+        <v>2570.9335095762499</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>2594.9186580190121</v>
+      </c>
+      <c r="K88">
+        <v>2532.3892097216776</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>61.771938226724963</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>24.050000000000182</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>109.05000000000018</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.22054103622191784</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>2547.938285001097</v>
+      </c>
+      <c r="W88">
+        <v>2547.250148803133</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>0.68813619796401326</v>
+      </c>
+      <c r="Y88">
+        <v>-0.2466711571488048</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>2600</v>
+      </c>
+      <c r="D89">
+        <v>2640</v>
+      </c>
+      <c r="E89">
+        <v>2552.1999999999998</v>
+      </c>
+      <c r="F89">
+        <v>2561</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>2584.4</v>
+      </c>
+      <c r="H89">
+        <v>2577.6667547881252</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>2604.9367340147874</v>
+      </c>
+      <c r="K89">
+        <v>2536.7916075613048</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>56.227447720731028</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>8.8000000000001819</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>87.800000000000182</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.10022779043280369</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>2549.9477796163128</v>
+      </c>
+      <c r="W89">
+        <v>2548.2686562991971</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>1.6791233171156819</v>
+      </c>
+      <c r="Y89">
+        <v>0.13848773770409253</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>2551.5</v>
+      </c>
+      <c r="D90">
+        <v>2560</v>
+      </c>
+      <c r="E90">
+        <v>2528.25</v>
+      </c>
+      <c r="F90">
+        <v>2538</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>2542.0833333333335</v>
+      </c>
+      <c r="H90">
+        <v>2559.8750440607291</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>2594.9507931226126</v>
+      </c>
+      <c r="K90">
+        <v>2534.8934725476815</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>43.698103423716859</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>9.75</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>31.75</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.30708661417322836</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>2548.1096596753414</v>
+      </c>
+      <c r="W90">
+        <v>2547.5080150918493</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>0.60164458349208871</v>
+      </c>
+      <c r="Y90">
+        <v>0.23111910686169179</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>2540.35</v>
+      </c>
+      <c r="D91">
+        <v>2604.9499999999998</v>
+      </c>
+      <c r="E91">
+        <v>2525.4499999999998</v>
+      </c>
+      <c r="F91">
+        <v>2535</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>2555.1333333333332</v>
+      </c>
+      <c r="H91">
+        <v>2557.5041886970312</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>2597.1728390953654</v>
+      </c>
+      <c r="K91">
+        <v>2532.7949230926411</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>42.166143898462536</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>9.5500000000001819</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>79.5</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.1201257861635243</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>2546.092788956058</v>
+      </c>
+      <c r="W91">
+        <v>2546.5814954554162</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-0.48870649935815891</v>
+      </c>
+      <c r="Y91">
+        <v>8.7153985617721641E-2</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>2548.8000000000002</v>
+      </c>
+      <c r="D92">
+        <v>2558.9499999999998</v>
+      </c>
+      <c r="E92">
+        <v>2521.1</v>
+      </c>
+      <c r="F92">
+        <v>2528.1999999999998</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>2536.083333333333</v>
+      </c>
+      <c r="H92">
+        <v>2546.7937610151821</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>2588.6788748519507</v>
+      </c>
+      <c r="K92">
+        <v>2530.1960512942765</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>38.356205044749537</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>7.0999999999999091</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>37.849999999999909</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.18758256274768628</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V92">
+        <v>2543.3400521935873</v>
+      </c>
+      <c r="W92">
+        <v>2545.2199031994596</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-1.8798510058722968</v>
+      </c>
+      <c r="Y92">
+        <v>-0.30624701268028209</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>2551</v>
+      </c>
+      <c r="D93">
+        <v>2612.4499999999998</v>
+      </c>
+      <c r="E93">
+        <v>2551</v>
+      </c>
+      <c r="F93">
+        <v>2586</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>2583.15</v>
+      </c>
+      <c r="H93">
+        <v>2564.9718805075909</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>2593.9613471070729</v>
+      </c>
+      <c r="K93">
+        <v>2534.8191510066595</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>68.549503636372535</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>35</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>61.449999999999818</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.56956875508543703</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>2549.9031210868816</v>
+      </c>
+      <c r="W93">
+        <v>2548.2406511106105</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>1.6624699762710407</v>
+      </c>
+      <c r="Y93">
+        <v>8.7496385109982477E-2</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>2590</v>
+      </c>
+      <c r="D94">
+        <v>2625</v>
+      </c>
+      <c r="E94">
+        <v>2558.25</v>
+      </c>
+      <c r="F94">
+        <v>2620</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>2601.0833333333335</v>
+      </c>
+      <c r="H94">
+        <v>2583.0276069204619</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>2600.8588255277232</v>
+      </c>
+      <c r="K94">
+        <v>2540.0260063385131</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>76.877169367695871</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>61.75</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>66.75</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.92509363295880154</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>2560.6872563042843</v>
+      </c>
+      <c r="W94">
+        <v>2553.5561584357506</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>7.1310978685337432</v>
+      </c>
+      <c r="Y94">
+        <v>1.4962166817947344</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>2604</v>
+      </c>
+      <c r="D95">
+        <v>2699.9</v>
+      </c>
+      <c r="E95">
+        <v>2603</v>
+      </c>
+      <c r="F95">
+        <v>2655.55</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>2652.8166666666666</v>
+      </c>
+      <c r="H95">
+        <v>2617.9221367935643</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>2622.8679754104514</v>
+      </c>
+      <c r="K95">
+        <v>2554.0202271521766</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>82.821995868796563</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>52.550000000000182</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>96.900000000000091</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.54231166150670929</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>2575.2815245651636</v>
+      </c>
+      <c r="W95">
+        <v>2561.11125781088</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>14.170266754283602</v>
+      </c>
+      <c r="Y95">
+        <v>4.0310266962925088</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>2676</v>
+      </c>
+      <c r="D96">
+        <v>2692.3</v>
+      </c>
+      <c r="E96">
+        <v>2621</v>
+      </c>
+      <c r="F96">
+        <v>2625</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>2646.1</v>
+      </c>
+      <c r="H96">
+        <v>2632.0110683967823</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>2638.2973142081291</v>
+      </c>
+      <c r="K96">
+        <v>2568.9046211183595</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>64.898766870268673</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>71.300000000000182</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>5.6100981767180785E-2</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>2582.9305207859079</v>
+      </c>
+      <c r="W96">
+        <v>2565.8437572322964</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>17.08676355361149</v>
+      </c>
+      <c r="Y96">
+        <v>6.6421740677563053</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>2622.8</v>
+      </c>
+      <c r="D97">
+        <v>2675</v>
+      </c>
+      <c r="E97">
+        <v>2611</v>
+      </c>
+      <c r="F97">
+        <v>2640.05</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>2642.0166666666669</v>
+      </c>
+      <c r="H97">
+        <v>2637.0138675317248</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>2646.4534666063228</v>
+      </c>
+      <c r="K97">
+        <v>2578.2591497587241</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>69.02637027670184</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>29.050000000000182</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>64</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.45390625000000284</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>2591.7181329726914</v>
+      </c>
+      <c r="W97">
+        <v>2571.3405159558301</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>20.377617016861223</v>
+      </c>
+      <c r="Y97">
+        <v>9.3892626575772891</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>2655.8</v>
+      </c>
+      <c r="D98">
+        <v>2700</v>
+      </c>
+      <c r="E98">
+        <v>2638.5</v>
+      </c>
+      <c r="F98">
+        <v>2667</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>2668.5</v>
+      </c>
+      <c r="H98">
+        <v>2652.7569337658624</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>2658.352696249362</v>
+      </c>
+      <c r="K98">
+        <v>2591.6460053678966</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>75.480285779409868</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>28.5</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>61.5</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.46341463414634149</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>2603.2999586692004</v>
+      </c>
+      <c r="W98">
+        <v>2578.4264036628056</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>24.873555006394781</v>
+      </c>
+      <c r="Y98">
+        <v>12.486121127340787</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>2672.8</v>
+      </c>
+      <c r="D99">
+        <v>2722.95</v>
+      </c>
+      <c r="E99">
+        <v>2663.55</v>
+      </c>
+      <c r="F99">
+        <v>2672.1</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>2686.2000000000003</v>
+      </c>
+      <c r="H99">
+        <v>2669.4784668829316</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>2672.7076526383926</v>
+      </c>
+      <c r="K99">
+        <v>2607.6246708416975</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>76.632074324790707</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>8.5499999999997272</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>59.399999999999636</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.14393939393939023</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>2613.8845804124003</v>
+      </c>
+      <c r="W99">
+        <v>2585.3651885766717</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>28.519391835728584</v>
+      </c>
+      <c r="Y99">
+        <v>15.692775269018346</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>2688</v>
+      </c>
+      <c r="D100">
+        <v>2690</v>
+      </c>
+      <c r="E100">
+        <v>2618.6999999999998</v>
+      </c>
+      <c r="F100">
+        <v>2618.6999999999998</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>2642.4666666666667</v>
+      </c>
+      <c r="H100">
+        <v>2655.9725667747989</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>2676.5503964965274</v>
+      </c>
+      <c r="K100">
+        <v>2610.0858550990979</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>47.455886939034215</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>71.300000000000182</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>2614.6254141951081</v>
+      </c>
+      <c r="W100">
+        <v>2587.8344338672887</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>26.790980327819398</v>
+      </c>
+      <c r="Y100">
+        <v>17.912416280778558</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>2619</v>
+      </c>
+      <c r="D101">
+        <v>2633.4</v>
+      </c>
+      <c r="E101">
+        <v>2555</v>
+      </c>
+      <c r="F101">
+        <v>2559.9</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>2582.7666666666664</v>
+      </c>
+      <c r="H101">
+        <v>2619.3696167207327</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>2666.9614194972992</v>
+      </c>
+      <c r="K101">
+        <v>2597.8445539659651</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>31.138225955361452</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>4.9000000000000909</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>78.400000000000091</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>6.2500000000001082E-2</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V101">
+        <v>2606.2061197035532</v>
+      </c>
+      <c r="W101">
+        <v>2585.7652165437858</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>20.440903159767458</v>
+      </c>
+      <c r="Y101">
+        <v>18.418113656576338</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>2540</v>
+      </c>
+      <c r="D102">
+        <v>2560.8000000000002</v>
+      </c>
+      <c r="E102">
+        <v>2455.1</v>
+      </c>
+      <c r="F102">
+        <v>2474</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>2496.6333333333332</v>
+      </c>
+      <c r="H102">
+        <v>2558.0014750270329</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>2643.3699929423437</v>
+      </c>
+      <c r="K102">
+        <v>2566.1235419735285</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>19.127795343781642</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>18.900000000000091</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>105.70000000000027</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.17880794701986794</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>2585.8667166722375</v>
+      </c>
+      <c r="W102">
+        <v>2577.4863116146166</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>8.3804050576209193</v>
+      </c>
+      <c r="Y102">
+        <v>16.410571936785253</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD102">
+        <f t="shared" si="35"/>
+        <v>2548.75</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="36"/>
+        <v>2520.4</v>
+      </c>
+      <c r="AF102">
+        <f t="shared" si="37"/>
+        <v>2507.9500000000003</v>
+      </c>
+      <c r="AG102">
+        <f t="shared" si="38"/>
+        <v>2495.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>2477.9499999999998</v>
+      </c>
+      <c r="D103">
+        <v>2498.35</v>
+      </c>
+      <c r="E103">
+        <v>2420</v>
+      </c>
+      <c r="F103">
+        <v>2449</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>2455.7833333333333</v>
+      </c>
+      <c r="H103">
+        <v>2506.8924041801829</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>2611.143327844045</v>
+      </c>
+      <c r="K103">
+        <v>2533.651643757189</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>16.774049857932376</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>29</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>78.349999999999909</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.37013401403956647</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>2564.8102987226625</v>
+      </c>
+      <c r="W103">
+        <v>2567.9688070505708</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-3.1585083279082937</v>
+      </c>
+      <c r="Y103">
+        <v>12.496755883846543</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>2454</v>
+      </c>
+      <c r="D104">
+        <v>2484.4</v>
+      </c>
+      <c r="E104">
+        <v>2417.65</v>
+      </c>
+      <c r="F104">
+        <v>2460.0500000000002</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>2454.0333333333333</v>
+      </c>
+      <c r="H104">
+        <v>2480.4628687567583</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>2582.9781438787018</v>
+      </c>
+      <c r="K104">
+        <v>2507.8735007000359</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>22.072143118460506</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>42.400000000000091</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>66.75</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.6352059925093646</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>2548.6933296884067</v>
+      </c>
+      <c r="W104">
+        <v>2559.9748213431212</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-11.2814916547145</v>
+      </c>
+      <c r="Y104">
+        <v>7.7411063761343337</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>2480</v>
+      </c>
+      <c r="D105">
+        <v>2485.0500000000002</v>
+      </c>
+      <c r="E105">
+        <v>2400</v>
+      </c>
+      <c r="F105">
+        <v>2406</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>2430.35</v>
+      </c>
+      <c r="H105">
+        <v>2455.4064343783793</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>2561.2163341278792</v>
+      </c>
+      <c r="K105">
+        <v>2483.9016116555836</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>15.888061812615412</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>85.050000000000182</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>7.0546737213403723E-2</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>2526.7405097363439</v>
+      </c>
+      <c r="W105">
+        <v>2548.5692790214084</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-21.828769285064482</v>
+      </c>
+      <c r="Y105">
+        <v>1.8271312438945708</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>2475.3500000000004</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>2452.5500000000002</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>2442.5500000000002</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>2432.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>2414.6999999999998</v>
+      </c>
+      <c r="D106">
+        <v>2425</v>
+      </c>
+      <c r="E106">
+        <v>2390</v>
+      </c>
+      <c r="F106">
+        <v>2410</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>2408.3333333333335</v>
+      </c>
+      <c r="H106">
+        <v>2431.8698838558566</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>2530.9460376550173</v>
+      </c>
+      <c r="K106">
+        <v>2463.0345868432319</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>18.013017586505303</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>35</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>2508.7804313153679</v>
+      </c>
+      <c r="W106">
+        <v>2538.3048879827857</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-29.52445666741778</v>
+      </c>
+      <c r="Y106">
+        <v>-4.4431863383678998</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>2410</v>
+      </c>
+      <c r="D107">
+        <v>2447.9</v>
+      </c>
+      <c r="E107">
+        <v>2390</v>
+      </c>
+      <c r="F107">
+        <v>2400</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>2412.6333333333332</v>
+      </c>
+      <c r="H107">
+        <v>2422.2516085945949</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>2512.4913626205689</v>
+      </c>
+      <c r="K107">
+        <v>2446.8046786558471</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>16.694978917919912</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>57.900000000000091</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.17271157167530196</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V107">
+        <v>2492.0449803437727</v>
+      </c>
+      <c r="W107">
+        <v>2528.0600814655422</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-36.015101121769476</v>
+      </c>
+      <c r="Y107">
+        <v>-10.757569295048215</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD107">
+        <f t="shared" si="35"/>
+        <v>2441.3000000000002</v>
+      </c>
+      <c r="AE107">
+        <f t="shared" si="36"/>
+        <v>2425.8000000000002</v>
+      </c>
+      <c r="AF107">
+        <f t="shared" si="37"/>
+        <v>2418.9500000000003</v>
+      </c>
+      <c r="AG107">
+        <f t="shared" si="38"/>
+        <v>2412.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
